--- a/stock/data/삼성카드.xlsx
+++ b/stock/data/삼성카드.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4141"/>
+  <dimension ref="A1:G4174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95688,10 +95688,769 @@
         <v>37850</v>
       </c>
       <c r="F4141" t="n">
-        <v>124883</v>
+        <v>124920</v>
       </c>
       <c r="G4141" t="n">
         <v>-1.560468140442133</v>
+      </c>
+    </row>
+    <row r="4142">
+      <c r="A4142" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B4142" t="n">
+        <v>38100</v>
+      </c>
+      <c r="C4142" t="n">
+        <v>38250</v>
+      </c>
+      <c r="D4142" t="n">
+        <v>36600</v>
+      </c>
+      <c r="E4142" t="n">
+        <v>36750</v>
+      </c>
+      <c r="F4142" t="n">
+        <v>142006</v>
+      </c>
+      <c r="G4142" t="n">
+        <v>-2.906208718626156</v>
+      </c>
+    </row>
+    <row r="4143">
+      <c r="A4143" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B4143" t="n">
+        <v>36300</v>
+      </c>
+      <c r="C4143" t="n">
+        <v>37000</v>
+      </c>
+      <c r="D4143" t="n">
+        <v>36150</v>
+      </c>
+      <c r="E4143" t="n">
+        <v>36550</v>
+      </c>
+      <c r="F4143" t="n">
+        <v>102451</v>
+      </c>
+      <c r="G4143" t="n">
+        <v>-0.5442176870748299</v>
+      </c>
+    </row>
+    <row r="4144">
+      <c r="A4144" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B4144" t="n">
+        <v>36300</v>
+      </c>
+      <c r="C4144" t="n">
+        <v>36750</v>
+      </c>
+      <c r="D4144" t="n">
+        <v>36000</v>
+      </c>
+      <c r="E4144" t="n">
+        <v>36450</v>
+      </c>
+      <c r="F4144" t="n">
+        <v>105194</v>
+      </c>
+      <c r="G4144" t="n">
+        <v>-0.2735978112175103</v>
+      </c>
+    </row>
+    <row r="4145">
+      <c r="A4145" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B4145" t="n">
+        <v>36800</v>
+      </c>
+      <c r="C4145" t="n">
+        <v>36950</v>
+      </c>
+      <c r="D4145" t="n">
+        <v>36150</v>
+      </c>
+      <c r="E4145" t="n">
+        <v>36400</v>
+      </c>
+      <c r="F4145" t="n">
+        <v>82202</v>
+      </c>
+      <c r="G4145" t="n">
+        <v>-0.1371742112482853</v>
+      </c>
+    </row>
+    <row r="4146">
+      <c r="A4146" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B4146" t="n">
+        <v>36050</v>
+      </c>
+      <c r="C4146" t="n">
+        <v>36500</v>
+      </c>
+      <c r="D4146" t="n">
+        <v>36050</v>
+      </c>
+      <c r="E4146" t="n">
+        <v>36100</v>
+      </c>
+      <c r="F4146" t="n">
+        <v>52530</v>
+      </c>
+      <c r="G4146" t="n">
+        <v>-0.8241758241758242</v>
+      </c>
+    </row>
+    <row r="4147">
+      <c r="A4147" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B4147" t="n">
+        <v>36100</v>
+      </c>
+      <c r="C4147" t="n">
+        <v>36750</v>
+      </c>
+      <c r="D4147" t="n">
+        <v>35950</v>
+      </c>
+      <c r="E4147" t="n">
+        <v>36450</v>
+      </c>
+      <c r="F4147" t="n">
+        <v>54116</v>
+      </c>
+      <c r="G4147" t="n">
+        <v>0.9695290858725761</v>
+      </c>
+    </row>
+    <row r="4148">
+      <c r="A4148" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B4148" t="n">
+        <v>36700</v>
+      </c>
+      <c r="C4148" t="n">
+        <v>36750</v>
+      </c>
+      <c r="D4148" t="n">
+        <v>36100</v>
+      </c>
+      <c r="E4148" t="n">
+        <v>36500</v>
+      </c>
+      <c r="F4148" t="n">
+        <v>65797</v>
+      </c>
+      <c r="G4148" t="n">
+        <v>0.1371742112482853</v>
+      </c>
+    </row>
+    <row r="4149">
+      <c r="A4149" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B4149" t="n">
+        <v>35500</v>
+      </c>
+      <c r="C4149" t="n">
+        <v>36100</v>
+      </c>
+      <c r="D4149" t="n">
+        <v>35050</v>
+      </c>
+      <c r="E4149" t="n">
+        <v>35400</v>
+      </c>
+      <c r="F4149" t="n">
+        <v>166571</v>
+      </c>
+      <c r="G4149" t="n">
+        <v>-3.013698630136986</v>
+      </c>
+    </row>
+    <row r="4150">
+      <c r="A4150" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B4150" t="n">
+        <v>35050</v>
+      </c>
+      <c r="C4150" t="n">
+        <v>35650</v>
+      </c>
+      <c r="D4150" t="n">
+        <v>34850</v>
+      </c>
+      <c r="E4150" t="n">
+        <v>35400</v>
+      </c>
+      <c r="F4150" t="n">
+        <v>98833</v>
+      </c>
+      <c r="G4150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4151">
+      <c r="A4151" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B4151" t="n">
+        <v>35350</v>
+      </c>
+      <c r="C4151" t="n">
+        <v>35650</v>
+      </c>
+      <c r="D4151" t="n">
+        <v>34850</v>
+      </c>
+      <c r="E4151" t="n">
+        <v>35650</v>
+      </c>
+      <c r="F4151" t="n">
+        <v>95405</v>
+      </c>
+      <c r="G4151" t="n">
+        <v>0.7062146892655368</v>
+      </c>
+    </row>
+    <row r="4152">
+      <c r="A4152" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B4152" t="n">
+        <v>35000</v>
+      </c>
+      <c r="C4152" t="n">
+        <v>37050</v>
+      </c>
+      <c r="D4152" t="n">
+        <v>35000</v>
+      </c>
+      <c r="E4152" t="n">
+        <v>37000</v>
+      </c>
+      <c r="F4152" t="n">
+        <v>144188</v>
+      </c>
+      <c r="G4152" t="n">
+        <v>3.786816269284712</v>
+      </c>
+    </row>
+    <row r="4153">
+      <c r="A4153" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B4153" t="n">
+        <v>36900</v>
+      </c>
+      <c r="C4153" t="n">
+        <v>36900</v>
+      </c>
+      <c r="D4153" t="n">
+        <v>36050</v>
+      </c>
+      <c r="E4153" t="n">
+        <v>36350</v>
+      </c>
+      <c r="F4153" t="n">
+        <v>72934</v>
+      </c>
+      <c r="G4153" t="n">
+        <v>-1.756756756756757</v>
+      </c>
+    </row>
+    <row r="4154">
+      <c r="A4154" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B4154" t="n">
+        <v>36650</v>
+      </c>
+      <c r="C4154" t="n">
+        <v>36650</v>
+      </c>
+      <c r="D4154" t="n">
+        <v>35500</v>
+      </c>
+      <c r="E4154" t="n">
+        <v>35800</v>
+      </c>
+      <c r="F4154" t="n">
+        <v>55101</v>
+      </c>
+      <c r="G4154" t="n">
+        <v>-1.513067400275103</v>
+      </c>
+    </row>
+    <row r="4155">
+      <c r="A4155" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B4155" t="n">
+        <v>35200</v>
+      </c>
+      <c r="C4155" t="n">
+        <v>36350</v>
+      </c>
+      <c r="D4155" t="n">
+        <v>35150</v>
+      </c>
+      <c r="E4155" t="n">
+        <v>35950</v>
+      </c>
+      <c r="F4155" t="n">
+        <v>85441</v>
+      </c>
+      <c r="G4155" t="n">
+        <v>0.4189944134078212</v>
+      </c>
+    </row>
+    <row r="4156">
+      <c r="A4156" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B4156" t="n">
+        <v>36850</v>
+      </c>
+      <c r="C4156" t="n">
+        <v>38100</v>
+      </c>
+      <c r="D4156" t="n">
+        <v>36350</v>
+      </c>
+      <c r="E4156" t="n">
+        <v>37750</v>
+      </c>
+      <c r="F4156" t="n">
+        <v>115406</v>
+      </c>
+      <c r="G4156" t="n">
+        <v>5.006954102920723</v>
+      </c>
+    </row>
+    <row r="4157">
+      <c r="A4157" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B4157" t="n">
+        <v>37350</v>
+      </c>
+      <c r="C4157" t="n">
+        <v>38300</v>
+      </c>
+      <c r="D4157" t="n">
+        <v>37200</v>
+      </c>
+      <c r="E4157" t="n">
+        <v>38100</v>
+      </c>
+      <c r="F4157" t="n">
+        <v>59123</v>
+      </c>
+      <c r="G4157" t="n">
+        <v>0.9271523178807948</v>
+      </c>
+    </row>
+    <row r="4158">
+      <c r="A4158" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B4158" t="n">
+        <v>38450</v>
+      </c>
+      <c r="C4158" t="n">
+        <v>38500</v>
+      </c>
+      <c r="D4158" t="n">
+        <v>37250</v>
+      </c>
+      <c r="E4158" t="n">
+        <v>37450</v>
+      </c>
+      <c r="F4158" t="n">
+        <v>51255</v>
+      </c>
+      <c r="G4158" t="n">
+        <v>-1.706036745406824</v>
+      </c>
+    </row>
+    <row r="4159">
+      <c r="A4159" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B4159" t="n">
+        <v>37250</v>
+      </c>
+      <c r="C4159" t="n">
+        <v>38200</v>
+      </c>
+      <c r="D4159" t="n">
+        <v>37250</v>
+      </c>
+      <c r="E4159" t="n">
+        <v>37850</v>
+      </c>
+      <c r="F4159" t="n">
+        <v>46810</v>
+      </c>
+      <c r="G4159" t="n">
+        <v>1.068090787716956</v>
+      </c>
+    </row>
+    <row r="4160">
+      <c r="A4160" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B4160" t="n">
+        <v>37800</v>
+      </c>
+      <c r="C4160" t="n">
+        <v>38700</v>
+      </c>
+      <c r="D4160" t="n">
+        <v>37650</v>
+      </c>
+      <c r="E4160" t="n">
+        <v>38350</v>
+      </c>
+      <c r="F4160" t="n">
+        <v>81383</v>
+      </c>
+      <c r="G4160" t="n">
+        <v>1.321003963011889</v>
+      </c>
+    </row>
+    <row r="4161">
+      <c r="A4161" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B4161" t="n">
+        <v>38850</v>
+      </c>
+      <c r="C4161" t="n">
+        <v>40450</v>
+      </c>
+      <c r="D4161" t="n">
+        <v>38400</v>
+      </c>
+      <c r="E4161" t="n">
+        <v>40150</v>
+      </c>
+      <c r="F4161" t="n">
+        <v>154926</v>
+      </c>
+      <c r="G4161" t="n">
+        <v>4.69361147327249</v>
+      </c>
+    </row>
+    <row r="4162">
+      <c r="A4162" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B4162" t="n">
+        <v>39650</v>
+      </c>
+      <c r="C4162" t="n">
+        <v>40100</v>
+      </c>
+      <c r="D4162" t="n">
+        <v>38650</v>
+      </c>
+      <c r="E4162" t="n">
+        <v>39100</v>
+      </c>
+      <c r="F4162" t="n">
+        <v>83743</v>
+      </c>
+      <c r="G4162" t="n">
+        <v>-2.61519302615193</v>
+      </c>
+    </row>
+    <row r="4163">
+      <c r="A4163" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B4163" t="n">
+        <v>38450</v>
+      </c>
+      <c r="C4163" t="n">
+        <v>39000</v>
+      </c>
+      <c r="D4163" t="n">
+        <v>38400</v>
+      </c>
+      <c r="E4163" t="n">
+        <v>38600</v>
+      </c>
+      <c r="F4163" t="n">
+        <v>28126</v>
+      </c>
+      <c r="G4163" t="n">
+        <v>-1.278772378516624</v>
+      </c>
+    </row>
+    <row r="4164">
+      <c r="A4164" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B4164" t="n">
+        <v>38450</v>
+      </c>
+      <c r="C4164" t="n">
+        <v>38700</v>
+      </c>
+      <c r="D4164" t="n">
+        <v>38200</v>
+      </c>
+      <c r="E4164" t="n">
+        <v>38250</v>
+      </c>
+      <c r="F4164" t="n">
+        <v>20060</v>
+      </c>
+      <c r="G4164" t="n">
+        <v>-0.9067357512953367</v>
+      </c>
+    </row>
+    <row r="4165">
+      <c r="A4165" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B4165" t="n">
+        <v>38700</v>
+      </c>
+      <c r="C4165" t="n">
+        <v>38750</v>
+      </c>
+      <c r="D4165" t="n">
+        <v>38200</v>
+      </c>
+      <c r="E4165" t="n">
+        <v>38450</v>
+      </c>
+      <c r="F4165" t="n">
+        <v>50922</v>
+      </c>
+      <c r="G4165" t="n">
+        <v>0.522875816993464</v>
+      </c>
+    </row>
+    <row r="4166">
+      <c r="A4166" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B4166" t="n">
+        <v>38800</v>
+      </c>
+      <c r="C4166" t="n">
+        <v>38900</v>
+      </c>
+      <c r="D4166" t="n">
+        <v>38400</v>
+      </c>
+      <c r="E4166" t="n">
+        <v>38600</v>
+      </c>
+      <c r="F4166" t="n">
+        <v>28552</v>
+      </c>
+      <c r="G4166" t="n">
+        <v>0.3901170351105332</v>
+      </c>
+    </row>
+    <row r="4167">
+      <c r="A4167" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B4167" t="n">
+        <v>38700</v>
+      </c>
+      <c r="C4167" t="n">
+        <v>39000</v>
+      </c>
+      <c r="D4167" t="n">
+        <v>38550</v>
+      </c>
+      <c r="E4167" t="n">
+        <v>38850</v>
+      </c>
+      <c r="F4167" t="n">
+        <v>45255</v>
+      </c>
+      <c r="G4167" t="n">
+        <v>0.6476683937823834</v>
+      </c>
+    </row>
+    <row r="4168">
+      <c r="A4168" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B4168" t="n">
+        <v>39250</v>
+      </c>
+      <c r="C4168" t="n">
+        <v>39600</v>
+      </c>
+      <c r="D4168" t="n">
+        <v>38600</v>
+      </c>
+      <c r="E4168" t="n">
+        <v>39550</v>
+      </c>
+      <c r="F4168" t="n">
+        <v>57598</v>
+      </c>
+      <c r="G4168" t="n">
+        <v>1.801801801801802</v>
+      </c>
+    </row>
+    <row r="4169">
+      <c r="A4169" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B4169" t="n">
+        <v>39600</v>
+      </c>
+      <c r="C4169" t="n">
+        <v>39900</v>
+      </c>
+      <c r="D4169" t="n">
+        <v>39100</v>
+      </c>
+      <c r="E4169" t="n">
+        <v>39600</v>
+      </c>
+      <c r="F4169" t="n">
+        <v>59527</v>
+      </c>
+      <c r="G4169" t="n">
+        <v>0.1264222503160556</v>
+      </c>
+    </row>
+    <row r="4170">
+      <c r="A4170" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B4170" t="n">
+        <v>39600</v>
+      </c>
+      <c r="C4170" t="n">
+        <v>39900</v>
+      </c>
+      <c r="D4170" t="n">
+        <v>39250</v>
+      </c>
+      <c r="E4170" t="n">
+        <v>39500</v>
+      </c>
+      <c r="F4170" t="n">
+        <v>34074</v>
+      </c>
+      <c r="G4170" t="n">
+        <v>-0.2525252525252525</v>
+      </c>
+    </row>
+    <row r="4171">
+      <c r="A4171" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B4171" t="n">
+        <v>40200</v>
+      </c>
+      <c r="C4171" t="n">
+        <v>40250</v>
+      </c>
+      <c r="D4171" t="n">
+        <v>39400</v>
+      </c>
+      <c r="E4171" t="n">
+        <v>39500</v>
+      </c>
+      <c r="F4171" t="n">
+        <v>64969</v>
+      </c>
+      <c r="G4171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4172">
+      <c r="A4172" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B4172" t="n">
+        <v>39150</v>
+      </c>
+      <c r="C4172" t="n">
+        <v>40200</v>
+      </c>
+      <c r="D4172" t="n">
+        <v>38850</v>
+      </c>
+      <c r="E4172" t="n">
+        <v>39700</v>
+      </c>
+      <c r="F4172" t="n">
+        <v>70458</v>
+      </c>
+      <c r="G4172" t="n">
+        <v>0.5063291139240507</v>
+      </c>
+    </row>
+    <row r="4173">
+      <c r="A4173" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B4173" t="n">
+        <v>39700</v>
+      </c>
+      <c r="C4173" t="n">
+        <v>40250</v>
+      </c>
+      <c r="D4173" t="n">
+        <v>39550</v>
+      </c>
+      <c r="E4173" t="n">
+        <v>39950</v>
+      </c>
+      <c r="F4173" t="n">
+        <v>56636</v>
+      </c>
+      <c r="G4173" t="n">
+        <v>0.6297229219143577</v>
+      </c>
+    </row>
+    <row r="4174">
+      <c r="A4174" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B4174" t="n">
+        <v>39550</v>
+      </c>
+      <c r="C4174" t="n">
+        <v>40450</v>
+      </c>
+      <c r="D4174" t="n">
+        <v>39300</v>
+      </c>
+      <c r="E4174" t="n">
+        <v>40050</v>
+      </c>
+      <c r="F4174" t="n">
+        <v>38629</v>
+      </c>
+      <c r="G4174" t="n">
+        <v>0.2503128911138924</v>
       </c>
     </row>
   </sheetData>
